--- a/src/apps/bid_record/extracted_data/GEM_2025_B_6331660.xlsx
+++ b/src/apps/bid_record/extracted_data/GEM_2025_B_6331660.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Electric Two Wheeler - Motorcycle, Scooter and Moped Q2 3 2 Minimum Average Annual Turnover of the bidder For 3 Years 1 Lakh s 3 2 OEM Average Turnover Last 3 Years 5 Lakh s 78 Years of Past Experience Required for samesimilar service 3 Year s</t>
+          <t>Electric Two Wheeler - Motorcycle, Scooter and Moped Q2</t>
         </is>
       </c>
     </row>
